--- a/readme.xlsx
+++ b/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>スタートボタン押す</t>
     <rPh sb="7" eb="8">
@@ -438,19 +438,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイマーが終わったら次へ進む</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Result</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -754,6 +741,41 @@
   </si>
   <si>
     <t>Game</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイマーが終わったら処刑者を選ぶ</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全員が選び終わったら夜へ進む</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1116,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,162 +1276,157 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>28</v>
+      <c r="C27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>49</v>
+      <c r="D51" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
@@ -1419,26 +1436,36 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
         <v>20</v>
       </c>
     </row>
